--- a/Project Management/Gantt_FPC.xlsx
+++ b/Project Management/Gantt_FPC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d19038892522f458/Documents/GitHub/Projects/Project Management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasmus.muhrbeck\Documents\GitHub\Projects\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D73B4C6-8BB7-499B-B7FB-0A52E336EB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306B2451-DC41-4A5B-8D34-7C712F8C99BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B03B026-6434-4C5F-A81C-EDE010B9CAA3}"/>
   </bookViews>
@@ -25,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>PROJECT STARTS</t>
   </si>
@@ -50,36 +42,6 @@
   </si>
   <si>
     <t>END</t>
-  </si>
-  <si>
-    <t>Task 1.1</t>
-  </si>
-  <si>
-    <t>Task 1.2</t>
-  </si>
-  <si>
-    <t>Task 1.3</t>
-  </si>
-  <si>
-    <t>Task 1.4</t>
-  </si>
-  <si>
-    <t>Phase1 Title</t>
-  </si>
-  <si>
-    <t>Phsae2 Title</t>
-  </si>
-  <si>
-    <t>Task 2.1</t>
-  </si>
-  <si>
-    <t>Task 2.2</t>
-  </si>
-  <si>
-    <t>Task 2.3</t>
-  </si>
-  <si>
-    <t>Task 2.4</t>
   </si>
   <si>
     <t>Display Week</t>
@@ -103,25 +65,64 @@
     <t>Do we need to tape the flec to the cell?</t>
   </si>
   <si>
-    <t>Connect WE and CE, when are we ready for this?</t>
-  </si>
-  <si>
-    <t>Soldering or pointwelding</t>
-  </si>
-  <si>
     <t>CELL FPC</t>
   </si>
   <si>
     <t>EXEGER</t>
   </si>
   <si>
-    <t>Rasmus Muhrbeck</t>
-  </si>
-  <si>
     <t>Ship date</t>
   </si>
   <si>
     <t>Lead time, unprepared vs prepared</t>
+  </si>
+  <si>
+    <t>Test of cells</t>
+  </si>
+  <si>
+    <t>Mount Flex to Cell</t>
+  </si>
+  <si>
+    <t>Pre-tinned?</t>
+  </si>
+  <si>
+    <t>Reflow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead time Flex HerpaTech [new design] </t>
+  </si>
+  <si>
+    <t>Lead time normal FPC</t>
+  </si>
+  <si>
+    <t>Nicklas</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
+    <t>FAB</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Soldering or pointwelding, Go for solder and continue research on welding?</t>
+  </si>
+  <si>
+    <t>Test method? Estimated test time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lead time Flex Herpatech [Old design] </t>
+  </si>
+  <si>
+    <t>Anna/Björn</t>
+  </si>
+  <si>
+    <t>Shipping flex</t>
+  </si>
+  <si>
+    <t>If HT, there will be no opening in flex, required to bend flex</t>
   </si>
 </sst>
 </file>
@@ -131,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +201,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -346,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,15 +384,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -394,12 +394,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -429,108 +423,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -572,7 +502,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$4" horiz="1" max="100"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$D$4" horiz="1" max="100" page="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,7 +530,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523DCDD8-BFBA-457D-A871-0B0596777FEB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -927,16 +857,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F90819-BFE8-4CE2-B0BF-619D3689AA1F}">
-  <dimension ref="A1:CL40"/>
+  <dimension ref="A1:CL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="5" customWidth="1"/>
     <col min="4" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" style="5" customWidth="1"/>
@@ -945,27 +875,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>23</v>
+      <c r="A1" s="20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>24</v>
+      <c r="A2" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="30">
         <v>44103</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="31"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1052,468 +980,468 @@
       <c r="CL3" s="2"/>
     </row>
     <row r="4" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="16">
+        <v>4</v>
+      </c>
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="27">
         <f>G5</f>
         <v>44102</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="27">
         <f t="shared" ref="N4" si="0">N5</f>
         <v>44109</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="10">
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="27">
         <f t="shared" ref="U4" si="1">U5</f>
         <v>44116</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="10">
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="27">
         <f t="shared" ref="AB4" si="2">AB5</f>
         <v>44123</v>
       </c>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="10">
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="27">
         <f t="shared" ref="AI4" si="3">AI5</f>
         <v>44130</v>
       </c>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="10">
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="27">
         <f t="shared" ref="AP4" si="4">AP5</f>
         <v>44137</v>
       </c>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="11"/>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="10">
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="28"/>
+      <c r="AS4" s="28"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="27">
         <f t="shared" ref="AW4" si="5">AW5</f>
         <v>44144</v>
       </c>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="10">
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28"/>
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="27">
         <f t="shared" ref="BD4" si="6">BD5</f>
         <v>44151</v>
       </c>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="10">
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="27">
         <f t="shared" ref="BK4" si="7">BK5</f>
         <v>44158</v>
       </c>
-      <c r="BL4" s="11"/>
-      <c r="BM4" s="11"/>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="12"/>
-      <c r="BR4" s="10">
+      <c r="BL4" s="28"/>
+      <c r="BM4" s="28"/>
+      <c r="BN4" s="28"/>
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="29"/>
+      <c r="BR4" s="27">
         <f t="shared" ref="BR4" si="8">BR5</f>
         <v>44165</v>
       </c>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
-      <c r="BU4" s="11"/>
-      <c r="BV4" s="11"/>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="12"/>
-      <c r="BY4" s="10">
+      <c r="BS4" s="28"/>
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="28"/>
+      <c r="BV4" s="28"/>
+      <c r="BW4" s="28"/>
+      <c r="BX4" s="29"/>
+      <c r="BY4" s="27">
         <f t="shared" ref="BY4" si="9">BY5</f>
         <v>44172</v>
       </c>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="11"/>
-      <c r="CB4" s="11"/>
-      <c r="CC4" s="11"/>
-      <c r="CD4" s="11"/>
-      <c r="CE4" s="12"/>
-      <c r="CF4" s="10">
+      <c r="BZ4" s="28"/>
+      <c r="CA4" s="28"/>
+      <c r="CB4" s="28"/>
+      <c r="CC4" s="28"/>
+      <c r="CD4" s="28"/>
+      <c r="CE4" s="29"/>
+      <c r="CF4" s="27">
         <f t="shared" ref="CF4" si="10">CF5</f>
         <v>44179</v>
       </c>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="11"/>
-      <c r="CI4" s="11"/>
-      <c r="CJ4" s="11"/>
-      <c r="CK4" s="11"/>
-      <c r="CL4" s="12"/>
+      <c r="CG4" s="28"/>
+      <c r="CH4" s="28"/>
+      <c r="CI4" s="28"/>
+      <c r="CJ4" s="28"/>
+      <c r="CK4" s="28"/>
+      <c r="CL4" s="29"/>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <f>$D$3-WEEKDAY(project_start,3) + (display_week - 1)*7</f>
         <v>44102</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <f>G5+1</f>
         <v>44103</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <f t="shared" ref="I5:AO5" si="11">H5+1</f>
         <v>44104</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="11">
         <f t="shared" si="11"/>
         <v>44105</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="11">
         <f t="shared" si="11"/>
         <v>44106</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <f t="shared" si="11"/>
         <v>44107</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="12">
         <f t="shared" si="11"/>
         <v>44108</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="10">
         <f t="shared" si="11"/>
         <v>44109</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="11">
         <f t="shared" si="11"/>
         <v>44110</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="11">
         <f t="shared" si="11"/>
         <v>44111</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="11">
         <f t="shared" si="11"/>
         <v>44112</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="11">
         <f t="shared" si="11"/>
         <v>44113</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="11">
         <f t="shared" si="11"/>
         <v>44114</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="12">
         <f t="shared" si="11"/>
         <v>44115</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="10">
         <f t="shared" si="11"/>
         <v>44116</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="11">
         <f t="shared" si="11"/>
         <v>44117</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="11">
         <f t="shared" si="11"/>
         <v>44118</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="11">
         <f t="shared" si="11"/>
         <v>44119</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="11">
         <f t="shared" si="11"/>
         <v>44120</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="11">
         <f t="shared" si="11"/>
         <v>44121</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="12">
         <f t="shared" si="11"/>
         <v>44122</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AB5" s="10">
         <f t="shared" si="11"/>
         <v>44123</v>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="11">
         <f t="shared" si="11"/>
         <v>44124</v>
       </c>
-      <c r="AD5" s="14">
+      <c r="AD5" s="11">
         <f t="shared" si="11"/>
         <v>44125</v>
       </c>
-      <c r="AE5" s="14">
+      <c r="AE5" s="11">
         <f t="shared" si="11"/>
         <v>44126</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="11">
         <f t="shared" si="11"/>
         <v>44127</v>
       </c>
-      <c r="AG5" s="14">
+      <c r="AG5" s="11">
         <f t="shared" si="11"/>
         <v>44128</v>
       </c>
-      <c r="AH5" s="15">
+      <c r="AH5" s="12">
         <f t="shared" si="11"/>
         <v>44129</v>
       </c>
-      <c r="AI5" s="13">
+      <c r="AI5" s="10">
         <f t="shared" si="11"/>
         <v>44130</v>
       </c>
-      <c r="AJ5" s="14">
+      <c r="AJ5" s="11">
         <f t="shared" si="11"/>
         <v>44131</v>
       </c>
-      <c r="AK5" s="14">
+      <c r="AK5" s="11">
         <f t="shared" si="11"/>
         <v>44132</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AL5" s="11">
         <f t="shared" si="11"/>
         <v>44133</v>
       </c>
-      <c r="AM5" s="14">
+      <c r="AM5" s="11">
         <f t="shared" si="11"/>
         <v>44134</v>
       </c>
-      <c r="AN5" s="14">
+      <c r="AN5" s="11">
         <f t="shared" si="11"/>
         <v>44135</v>
       </c>
-      <c r="AO5" s="15">
+      <c r="AO5" s="12">
         <f t="shared" si="11"/>
         <v>44136</v>
       </c>
-      <c r="AP5" s="13">
+      <c r="AP5" s="10">
         <f t="shared" ref="AP5:BJ5" si="12">AO5+1</f>
         <v>44137</v>
       </c>
-      <c r="AQ5" s="14">
+      <c r="AQ5" s="11">
         <f t="shared" si="12"/>
         <v>44138</v>
       </c>
-      <c r="AR5" s="14">
+      <c r="AR5" s="11">
         <f t="shared" si="12"/>
         <v>44139</v>
       </c>
-      <c r="AS5" s="14">
+      <c r="AS5" s="11">
         <f t="shared" si="12"/>
         <v>44140</v>
       </c>
-      <c r="AT5" s="14">
+      <c r="AT5" s="11">
         <f t="shared" si="12"/>
         <v>44141</v>
       </c>
-      <c r="AU5" s="14">
+      <c r="AU5" s="11">
         <f t="shared" si="12"/>
         <v>44142</v>
       </c>
-      <c r="AV5" s="15">
+      <c r="AV5" s="12">
         <f t="shared" si="12"/>
         <v>44143</v>
       </c>
-      <c r="AW5" s="13">
+      <c r="AW5" s="10">
         <f t="shared" si="12"/>
         <v>44144</v>
       </c>
-      <c r="AX5" s="14">
+      <c r="AX5" s="11">
         <f t="shared" si="12"/>
         <v>44145</v>
       </c>
-      <c r="AY5" s="14">
+      <c r="AY5" s="11">
         <f t="shared" si="12"/>
         <v>44146</v>
       </c>
-      <c r="AZ5" s="14">
+      <c r="AZ5" s="11">
         <f t="shared" si="12"/>
         <v>44147</v>
       </c>
-      <c r="BA5" s="14">
+      <c r="BA5" s="11">
         <f t="shared" si="12"/>
         <v>44148</v>
       </c>
-      <c r="BB5" s="14">
+      <c r="BB5" s="11">
         <f t="shared" si="12"/>
         <v>44149</v>
       </c>
-      <c r="BC5" s="15">
+      <c r="BC5" s="12">
         <f t="shared" si="12"/>
         <v>44150</v>
       </c>
-      <c r="BD5" s="13">
+      <c r="BD5" s="10">
         <f t="shared" si="12"/>
         <v>44151</v>
       </c>
-      <c r="BE5" s="14">
+      <c r="BE5" s="11">
         <f t="shared" si="12"/>
         <v>44152</v>
       </c>
-      <c r="BF5" s="14">
+      <c r="BF5" s="11">
         <f t="shared" si="12"/>
         <v>44153</v>
       </c>
-      <c r="BG5" s="14">
+      <c r="BG5" s="11">
         <f t="shared" si="12"/>
         <v>44154</v>
       </c>
-      <c r="BH5" s="14">
+      <c r="BH5" s="11">
         <f t="shared" si="12"/>
         <v>44155</v>
       </c>
-      <c r="BI5" s="14">
+      <c r="BI5" s="11">
         <f t="shared" si="12"/>
         <v>44156</v>
       </c>
-      <c r="BJ5" s="15">
+      <c r="BJ5" s="12">
         <f t="shared" si="12"/>
         <v>44157</v>
       </c>
-      <c r="BK5" s="13">
+      <c r="BK5" s="10">
         <f t="shared" ref="BK5:BX5" si="13">BJ5+1</f>
         <v>44158</v>
       </c>
-      <c r="BL5" s="14">
+      <c r="BL5" s="11">
         <f t="shared" si="13"/>
         <v>44159</v>
       </c>
-      <c r="BM5" s="14">
+      <c r="BM5" s="11">
         <f t="shared" si="13"/>
         <v>44160</v>
       </c>
-      <c r="BN5" s="14">
+      <c r="BN5" s="11">
         <f t="shared" si="13"/>
         <v>44161</v>
       </c>
-      <c r="BO5" s="14">
+      <c r="BO5" s="11">
         <f t="shared" si="13"/>
         <v>44162</v>
       </c>
-      <c r="BP5" s="14">
+      <c r="BP5" s="11">
         <f t="shared" si="13"/>
         <v>44163</v>
       </c>
-      <c r="BQ5" s="15">
+      <c r="BQ5" s="12">
         <f t="shared" si="13"/>
         <v>44164</v>
       </c>
-      <c r="BR5" s="13">
+      <c r="BR5" s="10">
         <f t="shared" si="13"/>
         <v>44165</v>
       </c>
-      <c r="BS5" s="14">
+      <c r="BS5" s="11">
         <f t="shared" si="13"/>
         <v>44166</v>
       </c>
-      <c r="BT5" s="14">
+      <c r="BT5" s="11">
         <f t="shared" si="13"/>
         <v>44167</v>
       </c>
-      <c r="BU5" s="14">
+      <c r="BU5" s="11">
         <f t="shared" si="13"/>
         <v>44168</v>
       </c>
-      <c r="BV5" s="14">
+      <c r="BV5" s="11">
         <f t="shared" si="13"/>
         <v>44169</v>
       </c>
-      <c r="BW5" s="14">
+      <c r="BW5" s="11">
         <f t="shared" si="13"/>
         <v>44170</v>
       </c>
-      <c r="BX5" s="15">
+      <c r="BX5" s="12">
         <f t="shared" si="13"/>
         <v>44171</v>
       </c>
-      <c r="BY5" s="13">
+      <c r="BY5" s="10">
         <f t="shared" ref="BY5:CL5" si="14">BX5+1</f>
         <v>44172</v>
       </c>
-      <c r="BZ5" s="14">
+      <c r="BZ5" s="11">
         <f t="shared" si="14"/>
         <v>44173</v>
       </c>
-      <c r="CA5" s="14">
+      <c r="CA5" s="11">
         <f t="shared" si="14"/>
         <v>44174</v>
       </c>
-      <c r="CB5" s="14">
+      <c r="CB5" s="11">
         <f t="shared" si="14"/>
         <v>44175</v>
       </c>
-      <c r="CC5" s="14">
+      <c r="CC5" s="11">
         <f t="shared" si="14"/>
         <v>44176</v>
       </c>
-      <c r="CD5" s="14">
+      <c r="CD5" s="11">
         <f t="shared" si="14"/>
         <v>44177</v>
       </c>
-      <c r="CE5" s="15">
+      <c r="CE5" s="12">
         <f t="shared" si="14"/>
         <v>44178</v>
       </c>
-      <c r="CF5" s="13">
+      <c r="CF5" s="10">
         <f t="shared" si="14"/>
         <v>44179</v>
       </c>
-      <c r="CG5" s="14">
+      <c r="CG5" s="11">
         <f t="shared" si="14"/>
         <v>44180</v>
       </c>
-      <c r="CH5" s="14">
+      <c r="CH5" s="11">
         <f t="shared" si="14"/>
         <v>44181</v>
       </c>
-      <c r="CI5" s="14">
+      <c r="CI5" s="11">
         <f t="shared" si="14"/>
         <v>44182</v>
       </c>
-      <c r="CJ5" s="14">
+      <c r="CJ5" s="11">
         <f t="shared" si="14"/>
         <v>44183</v>
       </c>
-      <c r="CK5" s="14">
+      <c r="CK5" s="11">
         <f t="shared" si="14"/>
         <v>44184</v>
       </c>
-      <c r="CL5" s="15">
+      <c r="CL5" s="12">
         <f t="shared" si="14"/>
         <v>44185</v>
       </c>
@@ -1522,11 +1450,11 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>15</v>
+      <c r="B6" s="17" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -1872,14 +1800,14 @@
         <v>s</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:90" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1966,20 +1894,12 @@
       <c r="CK7" s="8"/>
       <c r="CL7" s="8"/>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>44108</v>
-      </c>
-      <c r="E8" s="9">
-        <v>44113</v>
-      </c>
+    <row r="8" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -2066,20 +1986,12 @@
       <c r="CK8" s="8"/>
       <c r="CL8" s="8"/>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>44123</v>
-      </c>
-      <c r="E9" s="9">
-        <v>44125</v>
-      </c>
+    <row r="9" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2166,20 +2078,12 @@
       <c r="CK9" s="8"/>
       <c r="CL9" s="8"/>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="D10" s="9">
-        <v>44157</v>
-      </c>
-      <c r="E10" s="9">
-        <v>44189</v>
-      </c>
+    <row r="10" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -2266,14 +2170,12 @@
       <c r="CK10" s="8"/>
       <c r="CL10" s="8"/>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -2360,14 +2262,12 @@
       <c r="CK11" s="8"/>
       <c r="CL11" s="8"/>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="21"/>
+    <row r="12" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -2454,14 +2354,12 @@
       <c r="CK12" s="8"/>
       <c r="CL12" s="8"/>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="21"/>
+    <row r="13" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -2548,14 +2446,12 @@
       <c r="CK13" s="8"/>
       <c r="CL13" s="8"/>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -2642,14 +2538,12 @@
       <c r="CK14" s="8"/>
       <c r="CL14" s="8"/>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="21"/>
+    <row r="15" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -2736,14 +2630,12 @@
       <c r="CK15" s="8"/>
       <c r="CL15" s="8"/>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="21"/>
+    <row r="16" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2830,7 +2722,10 @@
       <c r="CK16" s="8"/>
       <c r="CL16" s="8"/>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2917,12 +2812,12 @@
       <c r="CK17" s="8"/>
       <c r="CL17" s="8"/>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="21"/>
+    <row r="18" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -3009,12 +2904,12 @@
       <c r="CK18" s="8"/>
       <c r="CL18" s="8"/>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="21"/>
+    <row r="19" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -3101,12 +2996,12 @@
       <c r="CK19" s="8"/>
       <c r="CL19" s="8"/>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="21"/>
+    <row r="20" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -3193,12 +3088,12 @@
       <c r="CK20" s="8"/>
       <c r="CL20" s="8"/>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="21"/>
+    <row r="21" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -3285,12 +3180,12 @@
       <c r="CK21" s="8"/>
       <c r="CL21" s="8"/>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="21"/>
+    <row r="22" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -3377,12 +3272,12 @@
       <c r="CK22" s="8"/>
       <c r="CL22" s="8"/>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+    <row r="23" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -3469,12 +3364,12 @@
       <c r="CK23" s="8"/>
       <c r="CL23" s="8"/>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+    <row r="24" spans="1:90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -3562,11 +3457,23 @@
       <c r="CL24" s="8"/>
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="23">
+        <f>E25-16</f>
+        <v>44122</v>
+      </c>
+      <c r="E25" s="23">
+        <f>D28</f>
+        <v>44138</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -3653,12 +3560,24 @@
       <c r="CK25" s="8"/>
       <c r="CL25" s="8"/>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+    <row r="26" spans="1:90" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="9">
+        <f>E26-7</f>
+        <v>44131</v>
+      </c>
+      <c r="E26" s="9">
+        <f>D28</f>
+        <v>44138</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -3745,12 +3664,24 @@
       <c r="CK26" s="8"/>
       <c r="CL26" s="8"/>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+    <row r="27" spans="1:90" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="9">
+        <f>E27-28</f>
+        <v>44110</v>
+      </c>
+      <c r="E27" s="9">
+        <f>D28</f>
+        <v>44138</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -3838,11 +3769,23 @@
       <c r="CL27" s="8"/>
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <f>E28-5</f>
+        <v>44138</v>
+      </c>
+      <c r="E28" s="9">
+        <f>D29</f>
+        <v>44143</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3930,11 +3873,23 @@
       <c r="CL28" s="8"/>
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <f>E29-4</f>
+        <v>44143</v>
+      </c>
+      <c r="E29" s="9">
+        <f>D30-1</f>
+        <v>44147</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -4022,18 +3977,20 @@
       <c r="CL29" s="8"/>
     </row>
     <row r="30" spans="1:90" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="23">
+      <c r="A30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="18">
         <v>0.1</v>
       </c>
       <c r="D30" s="9">
-        <v>44138</v>
+        <v>44148</v>
       </c>
       <c r="E30" s="9">
-        <v>44139</v>
+        <v>44148</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="8"/>
@@ -4122,49 +4079,59 @@
       <c r="CL30" s="8"/>
     </row>
     <row r="32" spans="1:90" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="AW4:BC4"/>
-    <mergeCell ref="BD4:BJ4"/>
-    <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="BR4:BX4"/>
     <mergeCell ref="BY4:CE4"/>
     <mergeCell ref="CF4:CL4"/>
     <mergeCell ref="D3:E3"/>
@@ -4174,20 +4141,25 @@
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="AI4:AO4"/>
     <mergeCell ref="AP4:AV4"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="AW4:BC4"/>
+    <mergeCell ref="BD4:BJ4"/>
+    <mergeCell ref="BK4:BQ4"/>
+    <mergeCell ref="BR4:BX4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G7:CL30">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>AND(G$5&gt;=$D7,G$5&lt;=$E7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:CL30">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>G$5=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C16">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4200,18 +4172,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:CL17">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>AND(G$5&gt;=$D30,G$5&lt;=$E30)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G30:CL30">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AND(G$5&gt;=#REF!,G$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C30">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4222,6 +4189,23 @@
           <x14:id>{B07C4A71-1279-4937-9A5E-8F2B9295AF87}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{533B1777-61B6-4D22-BEB5-8F2BFFE68D46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:CL21 G25:CL25">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>AND(G$5&gt;=#REF!,G$5&lt;=#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4283,6 +4267,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{533B1777-61B6-4D22-BEB5-8F2BFFE68D46}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C7:C30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
